--- a/Documentation/Iteration Estimated Effort Northland Behavior Health and Wellness.xlsx
+++ b/Documentation/Iteration Estimated Effort Northland Behavior Health and Wellness.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri.sharepoint.com/sites/WebDevelopmentGroup6-Ogrp/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="8_{29D7E078-02A5-4211-9F55-3CEDBDFD121F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24527F89-DCEE-47BE-A6C2-AA58D016F28F}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="8_{29D7E078-02A5-4211-9F55-3CEDBDFD121F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF3ED941-1257-46FC-8217-733DB460334D}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration Estimated Effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t>Roles:</t>
   </si>
@@ -149,6 +150,9 @@
     <t>Communicate with Amy on design ideas and get feedback</t>
   </si>
   <si>
+    <t>Update client on current progress</t>
+  </si>
+  <si>
     <t>Development</t>
   </si>
   <si>
@@ -171,6 +175,24 @@
   </si>
   <si>
     <t>Iteration 2:</t>
+  </si>
+  <si>
+    <t>About Us Page set up</t>
+  </si>
+  <si>
+    <t>Providers Page set up</t>
+  </si>
+  <si>
+    <t>Services Page set up</t>
+  </si>
+  <si>
+    <t>Facebook Configuration Plugin</t>
+  </si>
+  <si>
+    <t>Wordpress configuration and seo setup</t>
+  </si>
+  <si>
+    <t>Iteration 3 Planning</t>
   </si>
   <si>
     <t>Iteration 3:</t>
@@ -184,7 +206,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -244,6 +266,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -478,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,6 +905,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1329,13 +1362,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
@@ -1347,18 +1380,18 @@
     <col min="8" max="8" width="11.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="12" width="9" style="5" customWidth="1"/>
-    <col min="13" max="16" width="9" style="8" customWidth="1"/>
-    <col min="17" max="32" width="9.140625" style="5"/>
+    <col min="11" max="14" width="9" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="18" max="32" width="9.140625" style="5"/>
     <col min="33" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="9" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -1413,13 +1446,11 @@
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -1436,7 +1467,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
     </row>
-    <row r="8" spans="1:32" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="9" customFormat="1" ht="47.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1449,21 +1480,19 @@
       <c r="H8" s="84"/>
       <c r="I8" s="83"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="85" t="s">
+        <v>12</v>
+      </c>
       <c r="M8" s="85" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N8" s="85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O8" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="85" t="s">
         <v>13</v>
       </c>
       <c r="R8" s="6"/>
@@ -1482,7 +1511,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="17" customFormat="1">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1505,21 +1534,19 @@
         <v>18</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="M9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="16"/>
+      <c r="O9" s="16"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1536,7 +1563,7 @@
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="17" customFormat="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1555,21 +1582,19 @@
         <v>20</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="M10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="23"/>
+      <c r="O10" s="23"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1586,7 +1611,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="17" customFormat="1">
       <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
@@ -1599,13 +1624,11 @@
       <c r="H11" s="29"/>
       <c r="I11" s="129"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="86"/>
       <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1622,7 +1645,7 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="9" customFormat="1">
       <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
@@ -1640,16 +1663,14 @@
       <c r="H12" s="33"/>
       <c r="I12" s="88">
         <f>SUM(H13:H17)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="88"/>
       <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1666,7 +1687,7 @@
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
     </row>
-    <row r="13" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="9" customFormat="1">
       <c r="A13" s="30"/>
       <c r="B13" s="35"/>
       <c r="C13" s="26" t="s">
@@ -1683,19 +1704,17 @@
       </c>
       <c r="G13" s="86"/>
       <c r="H13" s="1">
-        <f>Q13</f>
+        <f>O13</f>
         <v>0</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="95">
-        <f>SUM(M13:P13)</f>
+      <c r="O13" s="95">
+        <f>SUM(K13:N13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="6"/>
@@ -1714,7 +1733,7 @@
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
     </row>
-    <row r="14" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="9" customFormat="1">
       <c r="A14" s="30"/>
       <c r="B14" s="35"/>
       <c r="C14" s="26" t="s">
@@ -1731,20 +1750,20 @@
       </c>
       <c r="G14" s="86"/>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H21" si="0">Q14</f>
-        <v>0</v>
+        <f>O14</f>
+        <v>1</v>
       </c>
       <c r="I14" s="86"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="95">
-        <f t="shared" ref="Q14:Q15" si="1">SUM(M14:P14)</f>
-        <v>0</v>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="95">
+        <f t="shared" ref="O14:O15" si="0">SUM(K14:N14)</f>
+        <v>1</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1762,7 +1781,7 @@
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
     </row>
-    <row r="15" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="9" customFormat="1">
       <c r="A15" s="30"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37" t="s">
@@ -1779,20 +1798,20 @@
       </c>
       <c r="G15" s="90"/>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>O15</f>
+        <v>0.5</v>
       </c>
       <c r="I15" s="90"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="95">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="N15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="95">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1810,7 +1829,7 @@
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
     </row>
-    <row r="16" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="9" customFormat="1">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>27</v>
@@ -1826,16 +1845,14 @@
       <c r="H16" s="41"/>
       <c r="I16" s="88">
         <f>SUM(H17:H21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1852,7 +1869,7 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
     </row>
-    <row r="17" spans="1:32" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="9" customFormat="1" ht="31.5">
       <c r="A17" s="30"/>
       <c r="B17" s="35"/>
       <c r="C17" s="26" t="s">
@@ -1869,20 +1886,20 @@
       </c>
       <c r="G17" s="86"/>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>O17</f>
+        <v>1</v>
       </c>
       <c r="I17" s="86"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="95">
-        <f>SUM(M17:P17)</f>
-        <v>0</v>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="95">
+        <f>SUM(K17:N17)</f>
+        <v>1</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1900,7 +1917,7 @@
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
     </row>
-    <row r="18" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="9" customFormat="1">
       <c r="A18" s="30"/>
       <c r="B18" s="35"/>
       <c r="C18" s="26"/>
@@ -1909,19 +1926,17 @@
       <c r="F18" s="29"/>
       <c r="G18" s="86"/>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f>O18</f>
         <v>0</v>
       </c>
       <c r="I18" s="86"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="95">
-        <f t="shared" ref="Q18:Q21" si="2">SUM(M18:P18)</f>
+      <c r="O18" s="95">
+        <f t="shared" ref="O18:O21" si="1">SUM(K18:N18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="6"/>
@@ -1940,7 +1955,7 @@
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="9" customFormat="1">
       <c r="A19" s="30"/>
       <c r="B19" s="35"/>
       <c r="C19" s="26"/>
@@ -1949,19 +1964,17 @@
       <c r="F19" s="29"/>
       <c r="G19" s="86"/>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f>O19</f>
         <v>0</v>
       </c>
       <c r="I19" s="86"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="95">
-        <f t="shared" si="2"/>
+      <c r="O19" s="95">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="6"/>
@@ -1980,7 +1993,7 @@
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
     </row>
-    <row r="20" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="9" customFormat="1">
       <c r="A20" s="30"/>
       <c r="B20" s="35"/>
       <c r="C20" s="26"/>
@@ -1989,19 +2002,17 @@
       <c r="F20" s="29"/>
       <c r="G20" s="86"/>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f>O20</f>
         <v>0</v>
       </c>
       <c r="I20" s="86"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="95">
-        <f t="shared" si="2"/>
+      <c r="O20" s="95">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="6"/>
@@ -2020,7 +2031,7 @@
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
     </row>
-    <row r="21" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="9" customFormat="1">
       <c r="A21" s="30"/>
       <c r="B21" s="36"/>
       <c r="C21" s="37"/>
@@ -2029,19 +2040,17 @@
       <c r="F21" s="40"/>
       <c r="G21" s="90"/>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f>O21</f>
         <v>0</v>
       </c>
       <c r="I21" s="90"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="95">
-        <f t="shared" si="2"/>
+      <c r="O21" s="95">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="6"/>
@@ -2060,7 +2069,7 @@
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32">
       <c r="A22" s="42" t="s">
         <v>30</v>
       </c>
@@ -2072,13 +2081,13 @@
       <c r="G22" s="127"/>
       <c r="H22" s="112"/>
       <c r="I22" s="126"/>
-      <c r="M22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="113"/>
       <c r="N22" s="112"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="114"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O22" s="114"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="43" t="s">
         <v>31</v>
       </c>
@@ -2096,15 +2105,15 @@
       <c r="H23" s="41"/>
       <c r="I23" s="88">
         <f>SUM(H24:H28)</f>
-        <v>0</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="121"/>
-    </row>
-    <row r="24" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="121"/>
+    </row>
+    <row r="24" spans="1:32" s="2" customFormat="1">
       <c r="A24" s="43"/>
       <c r="B24" s="54"/>
       <c r="C24" s="49" t="s">
@@ -2121,20 +2130,24 @@
       </c>
       <c r="G24" s="91"/>
       <c r="H24" s="124">
-        <f>Q24</f>
-        <v>0</v>
+        <f>O24</f>
+        <v>2.5</v>
       </c>
       <c r="I24" s="91"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="K24" s="124">
+        <v>1</v>
+      </c>
+      <c r="L24" s="124">
+        <v>1</v>
+      </c>
       <c r="M24" s="124"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="122">
-        <f>SUM(M24:P24)</f>
-        <v>0</v>
+      <c r="N24" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="122">
+        <f>SUM(K24:N24)</f>
+        <v>2.5</v>
       </c>
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
@@ -2152,7 +2165,7 @@
       <c r="AE24" s="48"/>
       <c r="AF24" s="48"/>
     </row>
-    <row r="25" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" s="2" customFormat="1">
       <c r="A25" s="43"/>
       <c r="B25" s="54"/>
       <c r="C25" s="49" t="s">
@@ -2169,20 +2182,24 @@
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="124">
-        <f t="shared" ref="H25:H37" si="3">Q25</f>
-        <v>0</v>
+        <f>O25</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I25" s="91"/>
       <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="K25" s="124">
+        <v>2</v>
+      </c>
+      <c r="L25" s="124">
+        <v>0.4</v>
+      </c>
       <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="124"/>
-      <c r="P25" s="124"/>
-      <c r="Q25" s="122">
-        <f>SUM(M25:P25)</f>
-        <v>0</v>
+      <c r="N25" s="124">
+        <v>2</v>
+      </c>
+      <c r="O25" s="122">
+        <f>SUM(K25:N25)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R25" s="48"/>
       <c r="S25" s="48"/>
@@ -2200,7 +2217,7 @@
       <c r="AE25" s="48"/>
       <c r="AF25" s="48"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32">
       <c r="A26" s="43"/>
       <c r="B26" s="54"/>
       <c r="C26" s="49" t="s">
@@ -2217,20 +2234,26 @@
       </c>
       <c r="G26" s="91"/>
       <c r="H26" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>O26</f>
+        <v>4.5</v>
       </c>
       <c r="I26" s="91"/>
+      <c r="K26" s="124">
+        <v>2</v>
+      </c>
+      <c r="L26" s="124">
+        <v>2</v>
+      </c>
       <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="122">
-        <f>SUM(M26:P26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N26" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="122">
+        <f>SUM(K26:N26)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="43"/>
       <c r="B27" s="44" t="s">
         <v>37</v>
@@ -2241,20 +2264,20 @@
       <c r="F27" s="41"/>
       <c r="G27" s="47">
         <f>SUM(F28:F29)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="88">
         <f>SUM(H28:H32)</f>
-        <v>0</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="62"/>
       <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="121"/>
-    </row>
-    <row r="28" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="O27" s="121"/>
+    </row>
+    <row r="28" spans="1:32" ht="31.5">
       <c r="A28" s="43"/>
       <c r="B28" s="54"/>
       <c r="C28" s="49" t="s">
@@ -2271,45 +2294,55 @@
       </c>
       <c r="G28" s="91"/>
       <c r="H28" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>O28</f>
+        <v>1.5</v>
       </c>
       <c r="I28" s="91"/>
+      <c r="K28" s="124">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="124"/>
       <c r="M28" s="124"/>
       <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="122">
-        <f>SUM(M28:P28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O28" s="122">
+        <f>SUM(K28:N28)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="43"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
+      <c r="C29" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>3</v>
+      </c>
       <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="52">
+        <v>0.5</v>
+      </c>
       <c r="G29" s="91"/>
       <c r="H29" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>O29</f>
+        <v>1</v>
       </c>
       <c r="I29" s="91"/>
+      <c r="K29" s="124">
+        <v>1</v>
+      </c>
+      <c r="L29" s="124"/>
       <c r="M29" s="124"/>
       <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="122">
-        <f>SUM(M29:P29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O29" s="122">
+        <f>SUM(K29:N29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="43"/>
       <c r="B30" s="60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
@@ -2322,49 +2355,51 @@
       <c r="H30" s="41"/>
       <c r="I30" s="88">
         <f>SUM(H31:H35)</f>
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="62"/>
       <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="121"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O30" s="121"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="43"/>
       <c r="B31" s="54"/>
       <c r="C31" s="49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="52">
         <v>3</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>O31</f>
+        <v>3</v>
       </c>
       <c r="I31" s="91"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
       <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="122">
-        <f>SUM(M31:P31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N31" s="124">
+        <v>3</v>
+      </c>
+      <c r="O31" s="122">
+        <f>SUM(K31:N31)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="43"/>
       <c r="B32" s="54"/>
       <c r="C32" s="49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="50" t="s">
         <v>5</v>
@@ -2377,24 +2412,24 @@
       </c>
       <c r="G32" s="91"/>
       <c r="H32" s="124">
-        <f t="shared" si="3"/>
+        <f>O32</f>
         <v>0</v>
       </c>
       <c r="I32" s="91"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
       <c r="M32" s="124"/>
       <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="122">
-        <f>SUM(M32:P32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O32" s="122">
+        <f>SUM(K32:N32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="43"/>
       <c r="B33" s="55"/>
       <c r="C33" s="49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="50" t="s">
         <v>6</v>
@@ -2407,23 +2442,24 @@
       </c>
       <c r="G33" s="92"/>
       <c r="H33" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="92"/>
-      <c r="M33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124">
+        <v>1</v>
+      </c>
       <c r="N33" s="124"/>
-      <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="122">
-        <f>SUM(M33:P33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O33" s="122">
+        <f>SUM(K33:N33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="43"/>
       <c r="B34" s="60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="33"/>
@@ -2436,19 +2472,19 @@
       <c r="H34" s="41"/>
       <c r="I34" s="88">
         <f>SUM(H35:H39)</f>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="62"/>
       <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="121"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O34" s="121"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="43"/>
       <c r="B35" s="54"/>
       <c r="C35" s="49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="50" t="s">
         <v>5</v>
@@ -2461,20 +2497,24 @@
       </c>
       <c r="G35" s="91"/>
       <c r="H35" s="124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>O35</f>
+        <v>2</v>
       </c>
       <c r="I35" s="91"/>
+      <c r="K35" s="124">
+        <v>1</v>
+      </c>
+      <c r="L35" s="124"/>
       <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="122">
-        <f t="shared" ref="Q35:Q41" si="4">SUM(M35:P35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N35" s="124">
+        <v>1</v>
+      </c>
+      <c r="O35" s="122">
+        <f t="shared" ref="O35:O41" si="2">SUM(K35:N35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="43"/>
       <c r="B36" s="54"/>
       <c r="C36" s="49"/>
@@ -2483,20 +2523,20 @@
       <c r="F36" s="52"/>
       <c r="G36" s="91"/>
       <c r="H36" s="124">
-        <f t="shared" si="3"/>
+        <f>O36</f>
         <v>0</v>
       </c>
       <c r="I36" s="91"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
       <c r="M36" s="124"/>
       <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="122">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O36" s="122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="43"/>
       <c r="B37" s="55"/>
       <c r="C37" s="56"/>
@@ -2505,22 +2545,22 @@
       <c r="F37" s="59"/>
       <c r="G37" s="92"/>
       <c r="H37" s="124">
-        <f t="shared" si="3"/>
+        <f>O37</f>
         <v>0</v>
       </c>
       <c r="I37" s="92"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
       <c r="M37" s="124"/>
       <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="2" customFormat="1">
       <c r="A38" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="120"/>
       <c r="C38" s="26"/>
@@ -2531,13 +2571,11 @@
       <c r="H38" s="117"/>
       <c r="I38" s="125"/>
       <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
       <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="119"/>
+      <c r="O38" s="119"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
@@ -2554,51 +2592,61 @@
       <c r="AE38" s="48"/>
       <c r="AF38" s="48"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32">
       <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="134" t="s">
+        <v>37</v>
+      </c>
       <c r="C39" s="32"/>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
       <c r="F39" s="31"/>
       <c r="G39" s="88">
         <f>SUM(F40:F43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="88">
         <f>SUM(H40:H44)</f>
         <v>0</v>
       </c>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="94"/>
       <c r="N39" s="94"/>
       <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="30"/>
       <c r="B40" s="35"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
+      <c r="C40" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="29">
+        <v>1</v>
+      </c>
       <c r="G40" s="86"/>
       <c r="H40" s="1">
-        <f t="shared" ref="H40:H43" si="5">Q40</f>
+        <f>O40</f>
         <v>0</v>
       </c>
       <c r="I40" s="86"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
       <c r="M40" s="95"/>
       <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O40" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="30"/>
       <c r="B41" s="35"/>
       <c r="C41" s="26"/>
@@ -2607,20 +2655,20 @@
       <c r="F41" s="29"/>
       <c r="G41" s="86"/>
       <c r="H41" s="1">
-        <f t="shared" si="5"/>
+        <f>O41</f>
         <v>0</v>
       </c>
       <c r="I41" s="86"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
       <c r="M41" s="95"/>
       <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O41" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="30"/>
       <c r="B42" s="35"/>
       <c r="C42" s="26"/>
@@ -2629,20 +2677,20 @@
       <c r="F42" s="29"/>
       <c r="G42" s="86"/>
       <c r="H42" s="1">
-        <f t="shared" si="5"/>
+        <f>O42</f>
         <v>0</v>
       </c>
       <c r="I42" s="86"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
       <c r="M42" s="95"/>
       <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95">
-        <f t="shared" ref="Q42:Q67" si="6">SUM(M42:P42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O42" s="95">
+        <f t="shared" ref="O42:O68" si="3">SUM(K42:N42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="30"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
@@ -2651,408 +2699,484 @@
       <c r="F43" s="40"/>
       <c r="G43" s="90"/>
       <c r="H43" s="1">
-        <f t="shared" si="5"/>
+        <f>O43</f>
         <v>0</v>
       </c>
       <c r="I43" s="90"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
       <c r="M43" s="96"/>
       <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O43" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
+      <c r="B44" s="135" t="s">
+        <v>40</v>
+      </c>
       <c r="C44" s="32"/>
       <c r="D44" s="33"/>
       <c r="E44" s="34"/>
       <c r="F44" s="41"/>
       <c r="G44" s="88">
-        <f>SUM(F45:F49)</f>
-        <v>0</v>
+        <f>SUM(F45:F50)</f>
+        <v>35</v>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="88">
-        <f>SUM(H45:H49)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(H45:H50)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
       <c r="M44" s="94"/>
       <c r="N44" s="94"/>
       <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="30"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="29">
+        <v>2</v>
+      </c>
       <c r="G45" s="86"/>
       <c r="H45" s="1">
-        <f t="shared" ref="H45:H49" si="7">Q45</f>
+        <f>O45</f>
         <v>0</v>
       </c>
       <c r="I45" s="86"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
       <c r="M45" s="95"/>
       <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95">
-        <f>SUM(M45:P45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O45" s="95">
+        <f>SUM(K45:N45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="30"/>
       <c r="B46" s="35"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="29">
+        <v>2</v>
+      </c>
       <c r="G46" s="86"/>
       <c r="H46" s="1">
-        <f t="shared" si="7"/>
+        <f>O46</f>
         <v>0</v>
       </c>
       <c r="I46" s="86"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
       <c r="M46" s="95"/>
       <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O46" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="30"/>
       <c r="B47" s="35"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="29">
+        <v>8</v>
+      </c>
       <c r="G47" s="86"/>
       <c r="H47" s="1">
-        <f t="shared" si="7"/>
+        <f>O47</f>
         <v>0</v>
       </c>
       <c r="I47" s="86"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
       <c r="M47" s="95"/>
       <c r="N47" s="95"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O47" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="30"/>
       <c r="B48" s="35"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="29">
+        <v>12</v>
+      </c>
       <c r="G48" s="86"/>
       <c r="H48" s="1">
-        <f t="shared" si="7"/>
+        <f>O48</f>
         <v>0</v>
       </c>
       <c r="I48" s="86"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
       <c r="M48" s="95"/>
       <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O48" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="30"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="90"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B49" s="35"/>
+      <c r="C49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="29">
+        <v>1</v>
+      </c>
+      <c r="G49" s="86"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="86"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="88">
-        <f>SUM(F51:F53)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="88">
-        <f>SUM(H51:H55)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B50" s="36"/>
+      <c r="C50" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="40">
+        <v>10</v>
+      </c>
+      <c r="G50" s="90"/>
+      <c r="H50" s="1">
+        <f>O50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="90"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="30"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="1">
-        <f t="shared" ref="H51:H53" si="8">Q51</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="86"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
-      <c r="O51" s="95"/>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B51" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="88">
+        <f>SUM(F52:F54)</f>
+        <v>4</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="88">
+        <f>SUM(H52:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="30"/>
       <c r="B52" s="35"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="29"/>
+      <c r="C52" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="29">
+        <v>4</v>
+      </c>
       <c r="G52" s="86"/>
       <c r="H52" s="1">
-        <f t="shared" si="8"/>
+        <f>O52</f>
         <v>0</v>
       </c>
       <c r="I52" s="86"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
       <c r="M52" s="95"/>
       <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O52" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="30"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="90"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="90"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="48"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="48"/>
-      <c r="X54" s="48"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="48"/>
-      <c r="AA54" s="48"/>
-      <c r="AB54" s="48"/>
-      <c r="AC54" s="48"/>
-      <c r="AD54" s="48"/>
-      <c r="AE54" s="48"/>
-      <c r="AF54" s="48"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="88">
-        <f>SUM(F56:F60)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="88">
-        <f>SUM(H56:H60)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="124">
-        <f t="shared" ref="H56:H58" si="9">Q56</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="91"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+        <f>O53</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="86"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="1:32">
+      <c r="A54" s="30"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="1">
+        <f>O54</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="90"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:32" s="2" customFormat="1">
+      <c r="A55" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="115"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="114"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="48"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="48"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
+      <c r="AF55" s="48"/>
+    </row>
+    <row r="56" spans="1:32">
+      <c r="A56" s="64"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="88">
+        <f>SUM(F57:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="88">
+        <f>SUM(H57:H61)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="43"/>
       <c r="B57" s="54"/>
       <c r="C57" s="53"/>
       <c r="D57" s="50"/>
-      <c r="E57" s="70"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="69"/>
       <c r="G57" s="91"/>
       <c r="H57" s="124">
-        <f t="shared" si="9"/>
+        <f>O57</f>
         <v>0</v>
       </c>
       <c r="I57" s="91"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
       <c r="M57" s="93"/>
       <c r="N57" s="93"/>
-      <c r="O57" s="93"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O57" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="43"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="92"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="91"/>
       <c r="H58" s="124">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="92"/>
-      <c r="M58" s="100"/>
-      <c r="N58" s="100"/>
-      <c r="O58" s="100"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+        <f>O58</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="91"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="43"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="88">
-        <f>SUM(F60:F64)</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="88">
-        <f>SUM(H60:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B59" s="55"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="124">
+        <f>O59</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="92"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="43"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="124">
-        <f t="shared" ref="H60:H67" si="10">Q60</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="91"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="93"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="88">
+        <f>SUM(F61:F65)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="41"/>
+      <c r="I60" s="88">
+        <f>SUM(H61:H65)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="43"/>
       <c r="B61" s="54"/>
       <c r="C61" s="53"/>
@@ -3061,20 +3185,22 @@
       <c r="F61" s="69"/>
       <c r="G61" s="91"/>
       <c r="H61" s="124">
-        <f t="shared" si="10"/>
+        <f>O61</f>
         <v>0</v>
       </c>
       <c r="I61" s="91"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
       <c r="M61" s="93"/>
       <c r="N61" s="93"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O61" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="43"/>
       <c r="B62" s="54"/>
       <c r="C62" s="53"/>
@@ -3083,20 +3209,22 @@
       <c r="F62" s="69"/>
       <c r="G62" s="91"/>
       <c r="H62" s="124">
-        <f t="shared" si="10"/>
+        <f>O62</f>
         <v>0</v>
       </c>
       <c r="I62" s="91"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
       <c r="M62" s="93"/>
       <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O62" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="43"/>
       <c r="B63" s="54"/>
       <c r="C63" s="53"/>
@@ -3105,170 +3233,204 @@
       <c r="F63" s="69"/>
       <c r="G63" s="91"/>
       <c r="H63" s="124">
-        <f t="shared" si="10"/>
+        <f>O63</f>
         <v>0</v>
       </c>
       <c r="I63" s="91"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
       <c r="M63" s="93"/>
       <c r="N63" s="93"/>
-      <c r="O63" s="93"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93">
-        <f>SUM(M63:P63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="O63" s="93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="43"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="92"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="124">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="92"/>
-      <c r="M64" s="100"/>
-      <c r="N64" s="100"/>
-      <c r="O64" s="100"/>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <f>O64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="91"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93">
+        <f>SUM(K64:N64)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="43"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="101">
-        <f>SUM(F66:F67)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="78"/>
-      <c r="I65" s="101">
-        <f>SUM(H66:H67)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="102"/>
-      <c r="N65" s="102"/>
-      <c r="O65" s="102"/>
-      <c r="P65" s="102"/>
-      <c r="Q65" s="102"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="130">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="98"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="99"/>
-      <c r="O66" s="99"/>
-      <c r="P66" s="99"/>
-      <c r="Q66" s="99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="81"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="124">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="92"/>
-      <c r="M67" s="100"/>
-      <c r="N67" s="100"/>
-      <c r="O67" s="100"/>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="103" t="s">
+      <c r="B65" s="55"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="124">
+        <f>O65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="92"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="100"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="43"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="101">
+        <f>SUM(F67:F68)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="78"/>
+      <c r="I66" s="101">
+        <f>SUM(H67:H68)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="130">
+        <f>O67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="98"/>
+      <c r="K67" s="99"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="81"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="124">
+        <f>O68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="92"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" s="109" customFormat="1">
+      <c r="A69" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="103"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="132"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="106">
-        <f>SUM(F11:F67)</f>
-        <v>39.5</v>
-      </c>
-      <c r="G68" s="107"/>
-      <c r="H68" s="106">
-        <f>SUM(H11:H67)</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="107"/>
-      <c r="M68" s="108">
-        <f>SUM(M11:M67)</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="108">
-        <f>SUM(N11:N67)</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="108">
-        <f>SUM(O11:O67)</f>
-        <v>0</v>
-      </c>
-      <c r="P68" s="108">
-        <f>SUM(P11:P67)</f>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="108">
-        <f>SUM(M68:P68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="133"/>
-      <c r="M69" s="110"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="110"/>
-      <c r="P69" s="110"/>
-    </row>
-    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="103"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="106">
+        <f>SUM(F11:F68)</f>
+        <v>80</v>
+      </c>
+      <c r="G69" s="107"/>
+      <c r="H69" s="106">
+        <f>SUM(H11:H68)</f>
+        <v>22.4</v>
+      </c>
+      <c r="I69" s="107"/>
+      <c r="K69" s="108">
+        <f>SUM(K11:K68)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L69" s="108">
+        <f>SUM(L11:L68)</f>
+        <v>3.4</v>
+      </c>
+      <c r="M69" s="108">
+        <f>SUM(M11:M68)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="108">
+        <f>SUM(N11:N68)</f>
+        <v>9.5</v>
+      </c>
+      <c r="O69" s="108">
+        <f>SUM(K69:N69)</f>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="83" customFormat="1">
       <c r="D70" s="133"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="110"/>
       <c r="M70" s="110"/>
       <c r="N70" s="110"/>
-      <c r="O70" s="110"/>
-      <c r="P70" s="110"/>
-    </row>
-    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:17" s="83" customFormat="1">
       <c r="D71" s="133"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="110"/>
       <c r="M71" s="110"/>
       <c r="N71" s="110"/>
-      <c r="O71" s="110"/>
-      <c r="P71" s="110"/>
+    </row>
+    <row r="72" spans="1:17" s="83" customFormat="1">
+      <c r="D72" s="133"/>
+      <c r="K72" s="110"/>
+      <c r="L72" s="110"/>
+      <c r="M72" s="110"/>
+      <c r="N72" s="110"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 M1:P1048576">
+  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 K1:N1048576">
     <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3289,8 +3451,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="936f91413d56867dbe7cbbe8b60cc985">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="595f9894fb95a0fbc4d1305179277713" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="923d3de022c04703f3b8c37e28f5fa4d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="274310c734e9a52fb53e3c2bbc742399" ns2:_="">
     <xsd:import namespace="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -3300,6 +3462,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3318,6 +3484,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3427,43 +3615,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F83A2D-4AD0-4BAD-B6B8-733472BB7587}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F83A2D-4AD0-4BAD-B6B8-733472BB7587}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3F85CD1-F44F-40BC-96E6-8C1ABD691DF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4E149D-175F-4000-84E6-F3B694CF04DC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D5B9881-7098-4256-8FB2-5891F2F95933}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D5B9881-7098-4256-8FB2-5891F2F95933}"/>
 </file>
--- a/Documentation/Iteration Estimated Effort Northland Behavior Health and Wellness.xlsx
+++ b/Documentation/Iteration Estimated Effort Northland Behavior Health and Wellness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri.sharepoint.com/sites/WebDevelopmentGroup6-Ogrp/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="8_{29D7E078-02A5-4211-9F55-3CEDBDFD121F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF3ED941-1257-46FC-8217-733DB460334D}"/>
+  <xr:revisionPtr revIDLastSave="790" documentId="8_{29D7E078-02A5-4211-9F55-3CEDBDFD121F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9984920A-ED9A-4DAC-8CFB-68CE9D35D103}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
   <si>
     <t>Roles:</t>
   </si>
@@ -177,6 +177,9 @@
     <t>Iteration 2:</t>
   </si>
   <si>
+    <t>Backlog</t>
+  </si>
+  <si>
     <t>About Us Page set up</t>
   </si>
   <si>
@@ -196,6 +199,33 @@
   </si>
   <si>
     <t>Iteration 3:</t>
+  </si>
+  <si>
+    <t>Update Amy on progress</t>
+  </si>
+  <si>
+    <t>Set up/have meeting with Amy to discuss details</t>
+  </si>
+  <si>
+    <t>Communicator/Developers</t>
+  </si>
+  <si>
+    <t>Sarah, Scott</t>
+  </si>
+  <si>
+    <t>Finish Services Pages</t>
+  </si>
+  <si>
+    <t>Finish Provider Pages</t>
+  </si>
+  <si>
+    <t>Finish About us Page</t>
+  </si>
+  <si>
+    <t>Finish Home Page</t>
+  </si>
+  <si>
+    <t>Publish Site/Finish up details</t>
   </si>
 </sst>
 </file>
@@ -206,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,6 +301,25 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD9D9D9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFD9D9D9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -505,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -690,12 +739,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -786,9 +829,6 @@
     <xf numFmtId="165" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,18 +868,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,9 +889,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -867,20 +898,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -888,9 +910,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -911,13 +930,158 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Untitled1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1362,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF72"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1379,7 +1543,7 @@
     <col min="7" max="7" width="11.5703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
     <col min="11" max="14" width="9" style="8" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="5"/>
     <col min="18" max="32" width="9.140625" style="5"/>
@@ -1474,25 +1638,25 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="81"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="85" t="s">
+      <c r="L8" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="85" t="s">
+      <c r="N8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="85" t="s">
+      <c r="O8" s="83" t="s">
         <v>13</v>
       </c>
       <c r="R8" s="6"/>
@@ -1618,17 +1782,17 @@
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="129"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1661,16 +1825,16 @@
         <v>3</v>
       </c>
       <c r="H12" s="33"/>
-      <c r="I12" s="88">
-        <f>SUM(H13:H17)</f>
+      <c r="I12" s="126">
+        <f>SUM(H13:H15)</f>
         <v>2.5</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="86"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1702,20 +1866,22 @@
       <c r="F13" s="29">
         <v>1</v>
       </c>
-      <c r="G13" s="86"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="1">
         <f>O13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="86"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="84"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="95">
+      <c r="O13" s="92">
         <f>SUM(K13:N13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1748,12 +1914,12 @@
       <c r="F14" s="29">
         <v>1</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="1">
         <f>O14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="86"/>
+      <c r="I14" s="84"/>
       <c r="J14" s="6"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1761,7 +1927,7 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="92">
         <f t="shared" ref="O14:O15" si="0">SUM(K14:N14)</f>
         <v>1</v>
       </c>
@@ -1796,12 +1962,12 @@
       <c r="F15" s="40">
         <v>1</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="1">
         <f>O15</f>
         <v>0.5</v>
       </c>
-      <c r="I15" s="90"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="6"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1809,7 +1975,7 @@
       <c r="N15" s="1">
         <v>0.5</v>
       </c>
-      <c r="O15" s="95">
+      <c r="O15" s="92">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1843,16 +2009,16 @@
         <v>4</v>
       </c>
       <c r="H16" s="41"/>
-      <c r="I16" s="88">
+      <c r="I16" s="126">
         <f>SUM(H17:H21)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1875,7 +2041,7 @@
       <c r="C17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="121" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="28" t="s">
@@ -1884,22 +2050,28 @@
       <c r="F17" s="29">
         <v>4</v>
       </c>
-      <c r="G17" s="86"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="1">
         <f>O17</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="86"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="84"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
       <c r="N17" s="1">
         <v>1</v>
       </c>
-      <c r="O17" s="95">
+      <c r="O17" s="92">
         <f>SUM(K17:N17)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1924,18 +2096,18 @@
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="86"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="1">
         <f>O18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="86"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="95">
+      <c r="O18" s="92">
         <f t="shared" ref="O18:O21" si="1">SUM(K18:N18)</f>
         <v>0</v>
       </c>
@@ -1962,18 +2134,18 @@
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="86"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="1">
         <f>O19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="86"/>
+      <c r="I19" s="84"/>
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="95">
+      <c r="O19" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2000,18 +2172,18 @@
       <c r="D20" s="27"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="86"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="1">
         <f>O20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="86"/>
+      <c r="I20" s="84"/>
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="95">
+      <c r="O20" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2038,18 +2210,18 @@
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="90"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="1">
         <f>O21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="90"/>
+      <c r="I21" s="88"/>
       <c r="J21" s="6"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="95">
+      <c r="O21" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2073,19 +2245,37 @@
       <c r="A22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="126"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="114"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="127">
+        <f>SUM(F11:F21)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="128"/>
+      <c r="H22" s="127">
+        <f>SUM(H11:H21)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I22" s="117"/>
+      <c r="K22" s="132">
+        <f>SUM(K11:K21)</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="127">
+        <f t="shared" ref="L22:N22" si="2">SUM(L11:L21)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="127">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="127">
+        <f>SUM(N11:N21)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O22" s="109"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="43" t="s">
@@ -2103,15 +2293,15 @@
         <v>15</v>
       </c>
       <c r="H23" s="41"/>
-      <c r="I23" s="88">
-        <f>SUM(H24:H28)</f>
-        <v>12.9</v>
-      </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="121"/>
+      <c r="I23" s="126">
+        <f>SUM(H24:H26)</f>
+        <v>13.9</v>
+      </c>
+      <c r="K23" s="130"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="86"/>
     </row>
     <row r="24" spans="1:32" s="2" customFormat="1">
       <c r="A24" s="43"/>
@@ -2128,26 +2318,28 @@
       <c r="F24" s="52">
         <v>2</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="124">
+      <c r="G24" s="89"/>
+      <c r="H24" s="116">
         <f>O24</f>
-        <v>2.5</v>
-      </c>
-      <c r="I24" s="91"/>
+        <v>3.5</v>
+      </c>
+      <c r="I24" s="89"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="124">
-        <v>1</v>
-      </c>
-      <c r="L24" s="124">
-        <v>1</v>
-      </c>
-      <c r="M24" s="124"/>
-      <c r="N24" s="124">
+      <c r="K24" s="116">
+        <v>1</v>
+      </c>
+      <c r="L24" s="116">
+        <v>1</v>
+      </c>
+      <c r="M24" s="116">
+        <v>1</v>
+      </c>
+      <c r="N24" s="116">
         <v>0.5</v>
       </c>
-      <c r="O24" s="122">
+      <c r="O24" s="115">
         <f>SUM(K24:N24)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
@@ -2180,26 +2372,28 @@
       <c r="F25" s="52">
         <v>8</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="124">
+      <c r="G25" s="89"/>
+      <c r="H25" s="116">
         <f>O25</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I25" s="91"/>
+        <v>5.4</v>
+      </c>
+      <c r="I25" s="89"/>
       <c r="J25" s="48"/>
-      <c r="K25" s="124">
+      <c r="K25" s="116">
         <v>2</v>
       </c>
-      <c r="L25" s="124">
+      <c r="L25" s="116">
         <v>0.4</v>
       </c>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124">
+      <c r="M25" s="116">
+        <v>1</v>
+      </c>
+      <c r="N25" s="116">
         <v>2</v>
       </c>
-      <c r="O25" s="122">
+      <c r="O25" s="115">
         <f>SUM(K25:N25)</f>
-        <v>4.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="R25" s="48"/>
       <c r="S25" s="48"/>
@@ -2232,25 +2426,27 @@
       <c r="F26" s="52">
         <v>5</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="124">
+      <c r="G26" s="89"/>
+      <c r="H26" s="116">
         <f>O26</f>
-        <v>4.5</v>
-      </c>
-      <c r="I26" s="91"/>
-      <c r="K26" s="124">
+        <v>5</v>
+      </c>
+      <c r="I26" s="89"/>
+      <c r="K26" s="116">
         <v>2</v>
       </c>
-      <c r="L26" s="124">
+      <c r="L26" s="116">
         <v>2</v>
       </c>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124">
+      <c r="M26" s="116">
         <v>0.5</v>
       </c>
-      <c r="O26" s="122">
+      <c r="N26" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="115">
         <f>SUM(K26:N26)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -2267,15 +2463,15 @@
         <v>1.5</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="88">
-        <f>SUM(H28:H32)</f>
-        <v>5.5</v>
-      </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="121"/>
+      <c r="I27" s="126">
+        <f>SUM(H28:H29)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="130"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="86"/>
     </row>
     <row r="28" spans="1:32" ht="31.5">
       <c r="A28" s="43"/>
@@ -2292,19 +2488,19 @@
       <c r="F28" s="52">
         <v>1</v>
       </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="124">
+      <c r="G28" s="89"/>
+      <c r="H28" s="116">
         <f>O28</f>
         <v>1.5</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="K28" s="124">
+      <c r="I28" s="89"/>
+      <c r="K28" s="116">
         <v>1.5</v>
       </c>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="122">
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="115">
         <f>SUM(K28:N28)</f>
         <v>1.5</v>
       </c>
@@ -2322,19 +2518,19 @@
       <c r="F29" s="52">
         <v>0.5</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="124">
+      <c r="G29" s="89"/>
+      <c r="H29" s="116">
         <f>O29</f>
         <v>1</v>
       </c>
-      <c r="I29" s="91"/>
-      <c r="K29" s="124">
-        <v>1</v>
-      </c>
-      <c r="L29" s="124"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="122">
+      <c r="I29" s="89"/>
+      <c r="K29" s="116">
+        <v>1</v>
+      </c>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="115">
         <f>SUM(K29:N29)</f>
         <v>1</v>
       </c>
@@ -2349,19 +2545,19 @@
       <c r="E30" s="33"/>
       <c r="F30" s="41"/>
       <c r="G30" s="47">
-        <f>SUM(F30:F33)</f>
+        <f>SUM(F31:F33)</f>
         <v>12.5</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="88">
-        <f>SUM(H31:H35)</f>
-        <v>6</v>
-      </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="121"/>
+      <c r="I30" s="126">
+        <f>SUM(H31:H33)</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="130"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="86"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="43"/>
@@ -2378,19 +2574,19 @@
       <c r="F31" s="52">
         <v>3</v>
       </c>
-      <c r="G31" s="91"/>
-      <c r="H31" s="124">
+      <c r="G31" s="89"/>
+      <c r="H31" s="116">
         <f>O31</f>
         <v>3</v>
       </c>
-      <c r="I31" s="91"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124">
+      <c r="I31" s="89"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116">
         <v>3</v>
       </c>
-      <c r="O31" s="122">
+      <c r="O31" s="115">
         <f>SUM(K31:N31)</f>
         <v>3</v>
       </c>
@@ -2410,17 +2606,17 @@
       <c r="F32" s="52">
         <v>8</v>
       </c>
-      <c r="G32" s="91"/>
-      <c r="H32" s="124">
+      <c r="G32" s="89"/>
+      <c r="H32" s="116">
         <f>O32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="91"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="122">
+      <c r="I32" s="89"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="115">
         <f>SUM(K32:N32)</f>
         <v>0</v>
       </c>
@@ -2440,18 +2636,19 @@
       <c r="F33" s="52">
         <v>1.5</v>
       </c>
-      <c r="G33" s="92"/>
-      <c r="H33" s="124">
-        <v>1</v>
-      </c>
-      <c r="I33" s="92"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="124">
-        <v>1</v>
-      </c>
-      <c r="N33" s="124"/>
-      <c r="O33" s="122">
+      <c r="G33" s="90"/>
+      <c r="H33" s="116">
+        <f>O33</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="90"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116">
+        <v>1</v>
+      </c>
+      <c r="N33" s="116"/>
+      <c r="O33" s="115">
         <f>SUM(K33:N33)</f>
         <v>1</v>
       </c>
@@ -2470,15 +2667,15 @@
         <v>4</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="88">
-        <f>SUM(H35:H39)</f>
+      <c r="I34" s="126">
+        <f>SUM(H35:H37)</f>
         <v>2</v>
       </c>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="121"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="86"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="43"/>
@@ -2495,22 +2692,22 @@
       <c r="F35" s="52">
         <v>4</v>
       </c>
-      <c r="G35" s="91"/>
-      <c r="H35" s="124">
+      <c r="G35" s="89"/>
+      <c r="H35" s="116">
         <f>O35</f>
         <v>2</v>
       </c>
-      <c r="I35" s="91"/>
-      <c r="K35" s="124">
-        <v>1</v>
-      </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124">
-        <v>1</v>
-      </c>
-      <c r="O35" s="122">
-        <f t="shared" ref="O35:O41" si="2">SUM(K35:N35)</f>
+      <c r="I35" s="89"/>
+      <c r="K35" s="116">
+        <v>1</v>
+      </c>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116">
+        <v>1</v>
+      </c>
+      <c r="O35" s="115">
+        <f t="shared" ref="O35:O37" si="3">SUM(K35:N35)</f>
         <v>2</v>
       </c>
     </row>
@@ -2521,18 +2718,18 @@
       <c r="D36" s="50"/>
       <c r="E36" s="51"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="124">
+      <c r="G36" s="89"/>
+      <c r="H36" s="116">
         <f>O36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="91"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="122">
-        <f t="shared" si="2"/>
+      <c r="I36" s="89"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="115">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2543,18 +2740,18 @@
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
       <c r="F37" s="59"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="124">
+      <c r="G37" s="90"/>
+      <c r="H37" s="116">
         <f>O37</f>
         <v>0</v>
       </c>
-      <c r="I37" s="92"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="123">
-        <f t="shared" si="2"/>
+      <c r="I37" s="90"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="115">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2562,20 +2759,38 @@
       <c r="A38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="120"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="125"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="135">
+        <f>SUM(F23:F37)</f>
+        <v>33</v>
+      </c>
+      <c r="G38" s="26"/>
+      <c r="H38" s="136">
+        <f>SUM(H23:H37)</f>
+        <v>22.4</v>
+      </c>
+      <c r="I38" s="129"/>
       <c r="J38" s="48"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="119"/>
+      <c r="K38" s="135">
+        <f>SUM(K23:K37)</f>
+        <v>8.5</v>
+      </c>
+      <c r="L38" s="135">
+        <f t="shared" ref="L38:N38" si="4">SUM(L23:L37)</f>
+        <v>3.4</v>
+      </c>
+      <c r="M38" s="135">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="N38" s="135">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O38" s="113"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
@@ -2594,78 +2809,92 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="30"/>
-      <c r="B39" s="134" t="s">
-        <v>37</v>
+      <c r="B39" s="124" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="88">
-        <f>SUM(F40:F43)</f>
-        <v>1</v>
+      <c r="G39" s="86">
+        <f>SUM(F39:F42)</f>
+        <v>2.5</v>
       </c>
       <c r="H39" s="33"/>
-      <c r="I39" s="88">
-        <f>SUM(H40:H44)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
+      <c r="I39" s="86">
+        <f>SUM(H40:H42)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K39" s="130"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="86"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="30"/>
       <c r="B40" s="35"/>
       <c r="C40" s="26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F40" s="29">
-        <v>1</v>
-      </c>
-      <c r="G40" s="86"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="84"/>
       <c r="H40" s="1">
         <f>O40</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="86"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I40" s="84"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92">
+        <v>2</v>
+      </c>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92">
+        <f>SUM(K40:N40)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="30"/>
       <c r="B41" s="35"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="86"/>
+      <c r="C41" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="84"/>
       <c r="H41" s="1">
         <f>O41</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="86"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="84"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="92">
+        <v>0</v>
+      </c>
+      <c r="O41" s="92">
+        <f>SUM(K41:N41)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -2675,126 +2904,122 @@
       <c r="D42" s="27"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="86"/>
+      <c r="G42" s="84"/>
       <c r="H42" s="1">
         <f>O42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="86"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95">
-        <f t="shared" ref="O42:O68" si="3">SUM(K42:N42)</f>
+      <c r="I42" s="84"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92">
+        <f t="shared" ref="O42:O71" si="5">SUM(K42:N42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="30"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="1">
-        <f>O43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="90"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B43" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="86">
+        <f>SUM(F44:F45)</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="33"/>
+      <c r="I43" s="86">
+        <f>SUM(H44:H46)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="130"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="86"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="30"/>
-      <c r="B44" s="135" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="88">
-        <f>SUM(F45:F50)</f>
-        <v>35</v>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="88">
-        <f>SUM(H45:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="29">
+        <v>1</v>
+      </c>
+      <c r="G44" s="84"/>
+      <c r="H44" s="1">
+        <f>O44</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="84"/>
+      <c r="K44" s="92">
+        <v>1</v>
+      </c>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92">
+        <f>SUM(K44:N44)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="30"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="29">
-        <v>2</v>
-      </c>
-      <c r="G45" s="86"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="84"/>
       <c r="H45" s="1">
         <f>O45</f>
         <v>0</v>
       </c>
-      <c r="I45" s="86"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95">
+      <c r="I45" s="84"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92">
         <f>SUM(K45:N45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="30"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="29">
-        <v>2</v>
-      </c>
-      <c r="G46" s="86"/>
-      <c r="H46" s="1">
-        <f>O46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="86"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B46" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="86">
+        <f>SUM(F47:F51)</f>
+        <v>28</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="126">
+        <f>SUM(H47:H55)</f>
+        <v>20.5</v>
+      </c>
+      <c r="K46" s="130"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="86"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="30"/>
@@ -2806,24 +3031,26 @@
         <v>5</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" s="29">
-        <v>8</v>
-      </c>
-      <c r="G47" s="86"/>
+        <v>2</v>
+      </c>
+      <c r="G47" s="84"/>
       <c r="H47" s="1">
         <f>O47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="86"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I47" s="84"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92">
+        <v>2</v>
+      </c>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92">
+        <f>SUM(K47:N47)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -2836,24 +3063,26 @@
         <v>5</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F48" s="29">
-        <v>12</v>
-      </c>
-      <c r="G48" s="86"/>
+        <v>8</v>
+      </c>
+      <c r="G48" s="84"/>
       <c r="H48" s="1">
         <f>O48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="86"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I48" s="84"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92">
+        <v>6</v>
+      </c>
+      <c r="O48" s="92">
+        <f>SUM(K48:N48)</f>
+        <v>6</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -2868,77 +3097,97 @@
         <v>5</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F49" s="29">
-        <v>1</v>
-      </c>
-      <c r="G49" s="86"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="86"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="95"/>
-      <c r="O49" s="95"/>
+        <v>12</v>
+      </c>
+      <c r="G49" s="84"/>
+      <c r="H49" s="1">
+        <f>O49</f>
+        <v>6</v>
+      </c>
+      <c r="I49" s="84"/>
+      <c r="K49" s="92">
+        <v>6</v>
+      </c>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92">
+        <f>SUM(K49:N49)</f>
+        <v>6</v>
+      </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="30"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37" t="s">
+      <c r="B50" s="35"/>
+      <c r="C50" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="40">
-        <v>10</v>
-      </c>
-      <c r="G50" s="90"/>
+      <c r="F50" s="29">
+        <v>1</v>
+      </c>
+      <c r="G50" s="84"/>
       <c r="H50" s="1">
         <f>O50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="90"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="I50" s="84"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92">
+        <v>0</v>
+      </c>
+      <c r="N50" s="92">
+        <v>1.5</v>
+      </c>
+      <c r="O50" s="92">
+        <f>SUM(K50:N50)</f>
+        <v>1.5</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="30"/>
-      <c r="B51" s="135" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="88">
-        <f>SUM(F52:F54)</f>
-        <v>4</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="88">
-        <f>SUM(H52:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="29">
+        <v>5</v>
+      </c>
+      <c r="G51" s="84"/>
+      <c r="H51" s="1">
+        <f>O51</f>
+        <v>3</v>
+      </c>
+      <c r="I51" s="84"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+      <c r="N51" s="92">
+        <v>3</v>
+      </c>
+      <c r="O51" s="92">
+        <f>SUM(K51:N51)</f>
+        <v>3</v>
+      </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
@@ -2946,30 +3195,34 @@
       <c r="A52" s="30"/>
       <c r="B52" s="35"/>
       <c r="C52" s="26" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F52" s="29">
-        <v>4</v>
-      </c>
-      <c r="G52" s="86"/>
+        <v>2</v>
+      </c>
+      <c r="G52" s="84"/>
       <c r="H52" s="1">
-        <f>O52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="86"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="H52:H54" si="6">O52</f>
+        <v>2</v>
+      </c>
+      <c r="I52" s="84"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92">
+        <v>2</v>
+      </c>
+      <c r="M52" s="92">
+        <v>0</v>
+      </c>
+      <c r="N52" s="92"/>
+      <c r="O52" s="92">
+        <f t="shared" ref="O52:O54" si="7">SUM(K52:N52)</f>
+        <v>2</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -2979,20 +3232,20 @@
       <c r="B53" s="35"/>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="63"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="29"/>
-      <c r="G53" s="86"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="1">
-        <f>O53</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="86"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
-      <c r="O53" s="95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="84"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="92"/>
+      <c r="N53" s="92"/>
+      <c r="O53" s="92">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P53" s="3"/>
@@ -3000,201 +3253,255 @@
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="30"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="90"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="84"/>
       <c r="H54" s="1">
-        <f>O54</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="90"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="84"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="92">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:32" s="2" customFormat="1">
-      <c r="A55" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="111"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="114"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="48"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="48"/>
-      <c r="Z55" s="48"/>
-      <c r="AA55" s="48"/>
-      <c r="AB55" s="48"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="48"/>
-      <c r="AE55" s="48"/>
-      <c r="AF55" s="48"/>
+    <row r="55" spans="1:32">
+      <c r="A55" s="30"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="1">
+        <f>O55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="88"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93">
+        <f>SUM(K55:N55)</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="64"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="125" t="s">
+        <v>45</v>
+      </c>
       <c r="C56" s="32"/>
       <c r="D56" s="33"/>
       <c r="E56" s="34"/>
       <c r="F56" s="41"/>
-      <c r="G56" s="88">
-        <f>SUM(F57:F61)</f>
-        <v>0</v>
+      <c r="G56" s="86">
+        <f>SUM(F57)</f>
+        <v>4</v>
       </c>
       <c r="H56" s="41"/>
-      <c r="I56" s="88">
-        <f>SUM(H57:H61)</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
+      <c r="I56" s="86">
+        <f>SUM(H57:H59)</f>
+        <v>32</v>
+      </c>
+      <c r="K56" s="130"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="86"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="43"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="124">
+      <c r="A57" s="30"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="29">
+        <v>4</v>
+      </c>
+      <c r="G57" s="84"/>
+      <c r="H57" s="1">
         <f>O57</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="91"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I57" s="84"/>
+      <c r="K57" s="92">
+        <v>1</v>
+      </c>
+      <c r="L57" s="92">
+        <v>1</v>
+      </c>
+      <c r="M57" s="92">
+        <v>1</v>
+      </c>
+      <c r="N57" s="92">
+        <v>1</v>
+      </c>
+      <c r="O57" s="92">
+        <f>SUM(K57:N57)</f>
+        <v>4</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" s="43"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="124">
-        <f>O58</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="91"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+    <row r="58" spans="1:32" s="2" customFormat="1">
+      <c r="A58" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="127">
+        <f>SUM(F39:F57)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G58" s="118"/>
+      <c r="H58" s="127">
+        <f>SUM(H39:H57)</f>
+        <v>28</v>
+      </c>
+      <c r="I58" s="118"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="127">
+        <f>SUM(K39:K57)</f>
+        <v>8</v>
+      </c>
+      <c r="L58" s="127">
+        <f>SUM(L39:L57)</f>
+        <v>5</v>
+      </c>
+      <c r="M58" s="127">
+        <f>SUM(M39:M57)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N58" s="127">
+        <f>SUM(N39:N57)</f>
+        <v>11.5</v>
+      </c>
+      <c r="O58" s="109"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="48"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="48"/>
+      <c r="AA58" s="48"/>
+      <c r="AB58" s="48"/>
+      <c r="AC58" s="48"/>
+      <c r="AD58" s="48"/>
+      <c r="AE58" s="48"/>
+      <c r="AF58" s="48"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="43"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="124">
-        <f>O59</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="92"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="100"/>
-      <c r="M59" s="100"/>
-      <c r="N59" s="100"/>
-      <c r="O59" s="100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A59" s="62"/>
+      <c r="B59" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="86">
+        <f>SUM(F60:F64)</f>
+        <v>13</v>
+      </c>
+      <c r="H59" s="41"/>
+      <c r="I59" s="86">
+        <f>SUM(H60:H64)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="130"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="86"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="43"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="88">
-        <f>SUM(F61:F65)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="88">
-        <f>SUM(H61:H65)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="94"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="67">
+        <v>1</v>
+      </c>
+      <c r="G60" s="89"/>
+      <c r="H60" s="116">
+        <f>O60</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="89"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:32" ht="31.5">
       <c r="A61" s="43"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="124">
+      <c r="C61" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="67">
+        <v>2</v>
+      </c>
+      <c r="G61" s="89"/>
+      <c r="H61" s="116">
         <f>O61</f>
         <v>0</v>
       </c>
-      <c r="I61" s="91"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="93">
-        <f t="shared" si="3"/>
+      <c r="I61" s="89"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P61" s="3"/>
@@ -3202,23 +3509,23 @@
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="43"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="50"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="70"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="124">
+      <c r="F62" s="71"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="116">
         <f>O62</f>
         <v>0</v>
       </c>
-      <c r="I62" s="91"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93">
-        <f t="shared" si="3"/>
+      <c r="I62" s="90"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="97"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="97">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P62" s="3"/>
@@ -3226,47 +3533,57 @@
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="43"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="124">
-        <f>O63</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="91"/>
-      <c r="K63" s="93"/>
-      <c r="L63" s="93"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="93"/>
-      <c r="O63" s="93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B63" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="86">
+        <f>SUM(F64:F68)</f>
+        <v>19</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="86">
+        <f>SUM(H64:H68)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="130"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="86"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="43"/>
       <c r="B64" s="54"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="124">
+      <c r="C64" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="67">
+        <v>10</v>
+      </c>
+      <c r="G64" s="89"/>
+      <c r="H64" s="116">
         <f>O64</f>
         <v>0</v>
       </c>
-      <c r="I64" s="91"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93">
-        <f>SUM(K64:N64)</f>
+      <c r="I64" s="89"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P64" s="3"/>
@@ -3274,23 +3591,33 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="43"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="124">
+      <c r="B65" s="54"/>
+      <c r="C65" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="67">
+        <v>5</v>
+      </c>
+      <c r="G65" s="89"/>
+      <c r="H65" s="116">
         <f>O65</f>
         <v>0</v>
       </c>
-      <c r="I65" s="92"/>
-      <c r="K65" s="100"/>
-      <c r="L65" s="100"/>
-      <c r="M65" s="100"/>
-      <c r="N65" s="100"/>
-      <c r="O65" s="100">
-        <f t="shared" si="3"/>
+      <c r="I65" s="89"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91">
+        <v>0</v>
+      </c>
+      <c r="O65" s="91">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P65" s="3"/>
@@ -3298,140 +3625,305 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="43"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="101">
-        <f>SUM(F67:F68)</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="101">
-        <f>SUM(H67:H68)</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="102"/>
-      <c r="N66" s="102"/>
-      <c r="O66" s="102"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="67"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="116">
+        <f>O66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="89"/>
+      <c r="K66" s="91"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="91"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="64"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="130">
+      <c r="A67" s="43"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="89"/>
+      <c r="H67" s="116">
         <f>O67</f>
         <v>0</v>
       </c>
-      <c r="I67" s="98"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="99"/>
-      <c r="N67" s="99"/>
-      <c r="O67" s="99">
-        <f t="shared" si="3"/>
+      <c r="I67" s="89"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91">
+        <f>SUM(K67:N67)</f>
         <v>0</v>
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="81"/>
+      <c r="A68" s="43"/>
       <c r="B68" s="55"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="124">
+      <c r="C68" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="71">
+        <v>3</v>
+      </c>
+      <c r="G68" s="90"/>
+      <c r="H68" s="116">
         <f>O68</f>
         <v>0</v>
       </c>
-      <c r="I68" s="92"/>
-      <c r="K68" s="100"/>
-      <c r="L68" s="100"/>
-      <c r="M68" s="100"/>
-      <c r="N68" s="100"/>
-      <c r="O68" s="100">
-        <f t="shared" si="3"/>
+      <c r="I68" s="90"/>
+      <c r="K68" s="97"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="97">
+        <v>0</v>
+      </c>
+      <c r="O68" s="97">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="1:17" s="109" customFormat="1">
-      <c r="A69" s="103" t="s">
+    <row r="69" spans="1:17">
+      <c r="A69" s="43"/>
+      <c r="B69" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="98">
+        <f>SUM(F70:F71)</f>
+        <v>22</v>
+      </c>
+      <c r="H69" s="76"/>
+      <c r="I69" s="98">
+        <f>SUM(H70:H71)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="99"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="62"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="120">
+        <f>O70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="95"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="96"/>
+      <c r="O70" s="96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="79"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="71">
+        <f>SUM(F59:F70)</f>
+        <v>22</v>
+      </c>
+      <c r="G71" s="90"/>
+      <c r="H71" s="71">
+        <f>SUM(H59:H70)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="90"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="97"/>
+      <c r="O71" s="97"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="1:17" s="105" customFormat="1">
+      <c r="A72" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="103"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="106">
-        <f>SUM(F11:F68)</f>
-        <v>80</v>
-      </c>
-      <c r="G69" s="107"/>
-      <c r="H69" s="106">
-        <f>SUM(H11:H68)</f>
-        <v>22.4</v>
-      </c>
-      <c r="I69" s="107"/>
-      <c r="K69" s="108">
-        <f>SUM(K11:K68)</f>
-        <v>8.5</v>
-      </c>
-      <c r="L69" s="108">
-        <f>SUM(L11:L68)</f>
-        <v>3.4</v>
-      </c>
-      <c r="M69" s="108">
-        <f>SUM(M11:M68)</f>
-        <v>1</v>
-      </c>
-      <c r="N69" s="108">
-        <f>SUM(N11:N68)</f>
-        <v>9.5</v>
-      </c>
-      <c r="O69" s="108">
-        <f>SUM(K69:N69)</f>
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="83" customFormat="1">
-      <c r="D70" s="133"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="110"/>
-      <c r="M70" s="110"/>
-      <c r="N70" s="110"/>
-    </row>
-    <row r="71" spans="1:17" s="83" customFormat="1">
-      <c r="D71" s="133"/>
-      <c r="K71" s="110"/>
-      <c r="L71" s="110"/>
-      <c r="M71" s="110"/>
-      <c r="N71" s="110"/>
-    </row>
-    <row r="72" spans="1:17" s="83" customFormat="1">
-      <c r="D72" s="133"/>
-      <c r="K72" s="110"/>
-      <c r="L72" s="110"/>
-      <c r="M72" s="110"/>
-      <c r="N72" s="110"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="103">
+        <f>SUM(F12:F21,F23:F37,F39:F57,F59:F71)</f>
+        <v>121.5</v>
+      </c>
+      <c r="G72" s="104"/>
+      <c r="H72" s="103">
+        <f>SUM(H12:H21,H23:H37,H39:H57,H59:H71)</f>
+        <v>56.9</v>
+      </c>
+      <c r="I72" s="104"/>
+      <c r="K72" s="103">
+        <f>SUM(K12:K21,K23:K37,K39:K57,K59:K71)</f>
+        <v>18.5</v>
+      </c>
+      <c r="L72" s="103">
+        <f>SUM(L12:L21,L23:L37,L39:L57,L59:L71)</f>
+        <v>9.4</v>
+      </c>
+      <c r="M72" s="103">
+        <f>SUM(M12:M21,M23:M37,M39:M57,M59:M71)</f>
+        <v>8</v>
+      </c>
+      <c r="N72" s="103">
+        <f>SUM(N12:N21,N23:N37,N39:N57,N59:N71)</f>
+        <v>21</v>
+      </c>
+      <c r="O72" s="103"/>
+    </row>
+    <row r="73" spans="1:17" s="81" customFormat="1">
+      <c r="D73" s="123"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="106"/>
+      <c r="N73" s="106"/>
+    </row>
+    <row r="74" spans="1:17" s="81" customFormat="1">
+      <c r="D74" s="123"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="106"/>
+      <c r="M74" s="106"/>
+      <c r="N74" s="106"/>
+    </row>
+    <row r="75" spans="1:17" s="81" customFormat="1">
+      <c r="D75" s="123"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="106"/>
+      <c r="N75" s="106"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="F1:F1048576 H1:H1048576 K1:N1048576">
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F1:F37 K42:N42 H1:H37 F42:F54 K24:N26 K28:N29 K31:N33 K35:N37 K44:N45 K47:N55 K60:N62 K1:N22 F56:F1048576 K57:N58 K64:N1048576 H42:H1048576">
+    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39 H39:H41 K40:N41 F41">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:N23">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:N27">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:N30">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:N34">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:N39">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:N43">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:N46">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:N56">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:N59">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:N63">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O72">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3451,9 +3943,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="923d3de022c04703f3b8c37e28f5fa4d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="274310c734e9a52fb53e3c2bbc742399" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058F2BC781B90974B812B062D022DD6DD" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4fcb440f308f8c944493030d375c185">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bdadcf82-ef89-4602-9135-bb2de5695f96" xmlns:ns3="69516d1f-8af6-4970-84f0-5fd3512d559d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a86bc8658d8502f2d7ab04fd112a396" ns2:_="" ns3:_="">
     <xsd:import namespace="bdadcf82-ef89-4602-9135-bb2de5695f96"/>
+    <xsd:import namespace="69516d1f-8af6-4970-84f0-5fd3512d559d"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3466,6 +3959,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3506,6 +4001,36 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69516d1f-8af6-4970-84f0-5fd3512d559d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3619,7 +4144,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4E149D-175F-4000-84E6-F3B694CF04DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{134D4D69-98A3-478F-85BB-A414779546E2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
